--- a/Rakenskapsanalys Spotify.xlsx
+++ b/Rakenskapsanalys Spotify.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\Analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6FEF9A-D0AB-4702-A137-7E2CEE9F67E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1083396-0824-4DD0-9091-5B30EA5080B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="200">
   <si>
     <t>Bokslutsdata</t>
   </si>
@@ -572,18 +572,9 @@
     <t>Soliditet</t>
   </si>
   <si>
-    <t>Likviditet</t>
-  </si>
-  <si>
     <t>Tillgångarnas omsättningshastighet</t>
   </si>
   <si>
-    <t>Genomsnittlig lagringstid</t>
-  </si>
-  <si>
-    <t>Kredittider</t>
-  </si>
-  <si>
     <t>EBIT + finansiella intäkter</t>
   </si>
   <si>
@@ -615,6 +606,33 @@
   </si>
   <si>
     <t xml:space="preserve">Värdena går mot att bli positiva med en klar dipp 2020. </t>
+  </si>
+  <si>
+    <t>ofta &gt;30%, men svängig. Ligger högt trots negativa resultat. Nyemissioner?</t>
+  </si>
+  <si>
+    <t>Kassalikviditet</t>
+  </si>
+  <si>
+    <t>Historiskt stark balanslikviditet utan tidigare risk för brist på likvida medel. Covid kan ha slagit mot likviditeten. Undersök om antalet betalande prenumeranter sjunkit</t>
+  </si>
+  <si>
+    <t>Betalande prenumeranter</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Månatligt aktiva användare </t>
+  </si>
+  <si>
+    <t>Omsättning per aktiva användare</t>
+  </si>
+  <si>
+    <t>Prenumerant till användare</t>
+  </si>
+  <si>
+    <t>2018 är det år med högst andel betalande prenumeranter och det enda år med positivt resultat. Det indikerar att jämnvikten ligger kring 46% betalande prenumeranter.</t>
   </si>
 </sst>
 </file>
@@ -625,7 +643,7 @@
     <numFmt numFmtId="164" formatCode="###\ ###\ ###\ ##0"/>
     <numFmt numFmtId="165" formatCode="###\ ###\ ###\ ##0.0#"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -700,6 +718,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -721,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -744,12 +767,18 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -757,456 +786,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1550,44 +1129,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K169"/>
+  <dimension ref="A2:K171"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="B142" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="58.81640625" customWidth="1"/>
     <col min="2" max="11" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18.5">
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>168</v>
       </c>
@@ -1622,12 +1201,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
@@ -1662,7 +1241,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -1697,7 +1276,7 @@
         <v>-215976</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1311,7 @@
         <v>-228696</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1767,12 +1346,12 @@
         <v>867433</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1386,7 @@
         <v>567.61</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
@@ -1842,12 +1421,12 @@
         <v>84.38</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
@@ -1882,7 +1461,7 @@
         <v>-34.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
@@ -1917,7 +1496,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
@@ -1952,7 +1531,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>28</v>
       </c>
@@ -1987,7 +1566,7 @@
         <v>-17.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>29</v>
       </c>
@@ -2022,7 +1601,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>30</v>
       </c>
@@ -2057,7 +1636,7 @@
         <v>-11.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>31</v>
       </c>
@@ -2092,12 +1671,12 @@
         <v>-39.65</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
@@ -2132,7 +1711,7 @@
         <v>-19.48</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>34</v>
       </c>
@@ -2167,7 +1746,7 @@
         <v>-8.82</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>35</v>
       </c>
@@ -2202,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
@@ -2237,7 +1816,7 @@
         <v>-26.4</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>37</v>
       </c>
@@ -2272,7 +1851,7 @@
         <v>-25.14</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
@@ -2307,7 +1886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>39</v>
       </c>
@@ -2342,7 +1921,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>40</v>
       </c>
@@ -2377,7 +1956,7 @@
         <v>-1653.18</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>41</v>
       </c>
@@ -2412,7 +1991,7 @@
         <v>701.19</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>42</v>
       </c>
@@ -2447,12 +2026,12 @@
         <v>-12.18</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -2487,7 +2066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -2522,7 +2101,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -2557,7 +2136,7 @@
         <v>-75.86</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -2592,7 +2171,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -2627,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
@@ -2662,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
@@ -2697,7 +2276,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -2732,7 +2311,7 @@
         <v>88.61</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -2767,7 +2346,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>53</v>
       </c>
@@ -2802,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -2837,17 +2416,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>57</v>
       </c>
@@ -2882,7 +2461,7 @@
         <v>-15.04</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.5">
+    <row r="56" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>58</v>
       </c>
@@ -2917,7 +2496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -2952,7 +2531,7 @@
         <v>1108431</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -2987,7 +2566,7 @@
         <v>1104486</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>61</v>
       </c>
@@ -3022,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -3057,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>63</v>
       </c>
@@ -3092,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>64</v>
       </c>
@@ -3127,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>65</v>
       </c>
@@ -3162,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>66</v>
       </c>
@@ -3197,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>67</v>
       </c>
@@ -3232,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>68</v>
       </c>
@@ -3267,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>69</v>
       </c>
@@ -3302,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>70</v>
       </c>
@@ -3337,7 +2916,7 @@
         <v>124110</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>71</v>
       </c>
@@ -3372,7 +2951,7 @@
         <v>76637</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>72</v>
       </c>
@@ -3407,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>73</v>
       </c>
@@ -3442,7 +3021,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>74</v>
       </c>
@@ -3477,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>75</v>
       </c>
@@ -3512,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>76</v>
       </c>
@@ -3547,7 +3126,7 @@
         <v>1200297</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>77</v>
       </c>
@@ -3582,7 +3161,7 @@
         <v>-292613</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>78</v>
       </c>
@@ -3617,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>79</v>
       </c>
@@ -3652,7 +3231,7 @@
         <v>14196</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
         <v>80</v>
       </c>
@@ -3687,7 +3266,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>81</v>
       </c>
@@ -3722,7 +3301,7 @@
         <v>22743</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>82</v>
       </c>
@@ -3757,7 +3336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>83</v>
       </c>
@@ -3792,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
         <v>84</v>
       </c>
@@ -3827,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
         <v>85</v>
       </c>
@@ -3862,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -3897,7 +3476,7 @@
         <v>-300438</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>87</v>
       </c>
@@ -3932,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>88</v>
       </c>
@@ -3967,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>89</v>
       </c>
@@ -4002,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
         <v>90</v>
       </c>
@@ -4037,7 +3616,7 @@
         <v>648325</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>91</v>
       </c>
@@ -4072,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>92</v>
       </c>
@@ -4107,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
         <v>93</v>
       </c>
@@ -4142,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -4177,7 +3756,7 @@
         <v>-300438</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.5">
+    <row r="95" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
@@ -4212,7 +3791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
@@ -4247,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>97</v>
       </c>
@@ -4282,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>98</v>
       </c>
@@ -4317,7 +3896,7 @@
         <v>184149</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>99</v>
       </c>
@@ -4352,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>100</v>
       </c>
@@ -4387,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>101</v>
       </c>
@@ -4422,7 +4001,7 @@
         <v>184149</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
         <v>102</v>
       </c>
@@ -4457,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>103</v>
       </c>
@@ -4492,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>104</v>
       </c>
@@ -4527,7 +4106,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
         <v>105</v>
       </c>
@@ -4562,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
         <v>106</v>
       </c>
@@ -4597,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>107</v>
       </c>
@@ -4632,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
         <v>108</v>
       </c>
@@ -4667,7 +4246,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
         <v>109</v>
       </c>
@@ -4702,7 +4281,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
         <v>110</v>
       </c>
@@ -4737,7 +4316,7 @@
         <v>899037</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
         <v>111</v>
       </c>
@@ -4772,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
         <v>112</v>
       </c>
@@ -4807,7 +4386,7 @@
         <v>6412</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
         <v>113</v>
       </c>
@@ -4842,7 +4421,7 @@
         <v>907062</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
@@ -4877,7 +4456,7 @@
         <v>1096229</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
         <v>115</v>
       </c>
@@ -4912,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
         <v>116</v>
       </c>
@@ -4947,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="s">
         <v>117</v>
       </c>
@@ -4982,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="s">
         <v>118</v>
       </c>
@@ -5017,7 +4596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
         <v>119</v>
       </c>
@@ -5052,7 +4631,7 @@
         <v>609177</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
         <v>120</v>
       </c>
@@ -5087,7 +4666,7 @@
         <v>11314</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="s">
         <v>121</v>
       </c>
@@ -5122,7 +4701,7 @@
         <v>620511</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
         <v>122</v>
       </c>
@@ -5157,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
         <v>123</v>
       </c>
@@ -5192,7 +4771,7 @@
         <v>129525</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="s">
         <v>124</v>
       </c>
@@ -5227,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
@@ -5262,7 +4841,7 @@
         <v>750036</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
@@ -5297,7 +4876,7 @@
         <v>1846265</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
         <v>127</v>
       </c>
@@ -5332,7 +4911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="11" t="s">
         <v>128</v>
       </c>
@@ -5367,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
         <v>129</v>
       </c>
@@ -5402,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="s">
         <v>130</v>
       </c>
@@ -5437,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
         <v>131</v>
       </c>
@@ -5472,7 +5051,7 @@
         <v>519546</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
         <v>132</v>
       </c>
@@ -5507,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
         <v>133</v>
       </c>
@@ -5542,7 +5121,7 @@
         <v>648325</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>134</v>
       </c>
@@ -5577,7 +5156,7 @@
         <v>-300438</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
@@ -5612,7 +5191,7 @@
         <v>867533</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
@@ -5647,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
@@ -5682,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
@@ -5717,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
         <v>139</v>
       </c>
@@ -5752,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="11" t="s">
         <v>140</v>
       </c>
@@ -5787,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="s">
         <v>141</v>
       </c>
@@ -5822,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="11" t="s">
         <v>142</v>
       </c>
@@ -5857,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
@@ -5892,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="11" t="s">
         <v>144</v>
       </c>
@@ -5927,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
         <v>145</v>
       </c>
@@ -5962,7 +5541,7 @@
         <v>15558</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="11" t="s">
         <v>146</v>
       </c>
@@ -5997,7 +5576,7 @@
         <v>885257</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="s">
         <v>147</v>
       </c>
@@ -6032,7 +5611,7 @@
         <v>77917</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
@@ -6067,7 +5646,7 @@
         <v>978732</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
@@ -6102,7 +5681,7 @@
         <v>1846265</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15.5">
+    <row r="152" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -6137,598 +5716,668 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
-      <c r="A153" s="11" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B153" s="9">
+        <v>155000000</v>
+      </c>
+      <c r="C153" s="9">
+        <v>124000000</v>
+      </c>
+      <c r="D153" s="9">
+        <v>96000000</v>
+      </c>
+      <c r="E153" s="9">
+        <v>71000000</v>
+      </c>
+      <c r="F153" s="9">
+        <v>48000000</v>
+      </c>
+      <c r="G153" s="9">
+        <v>28000000</v>
+      </c>
+      <c r="H153" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J153" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="K153" s="9">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B154" s="9">
+        <v>345000000</v>
+      </c>
+      <c r="C154" s="9">
+        <v>271000000</v>
+      </c>
+      <c r="D154" s="9">
+        <v>207000000</v>
+      </c>
+      <c r="E154" s="9">
+        <v>160000000</v>
+      </c>
+      <c r="F154" s="9">
+        <v>123000000</v>
+      </c>
+      <c r="G154" s="9">
+        <v>91000000</v>
+      </c>
+      <c r="H154" s="9">
+        <v>60000000</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J154" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="K154" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B155" s="9">
         <v>12</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C155" s="9">
         <v>12</v>
       </c>
-      <c r="D153" s="9">
+      <c r="D155" s="9">
         <v>12</v>
       </c>
-      <c r="E153" s="9">
+      <c r="E155" s="9">
         <v>12</v>
       </c>
-      <c r="F153" s="9">
+      <c r="F155" s="9">
         <v>12</v>
       </c>
-      <c r="G153" s="9">
+      <c r="G155" s="9">
         <v>12</v>
       </c>
-      <c r="H153" s="9">
+      <c r="H155" s="9">
         <v>12</v>
       </c>
-      <c r="I153" s="9">
+      <c r="I155" s="9">
         <v>12</v>
       </c>
-      <c r="J153" s="9">
+      <c r="J155" s="9">
         <v>12</v>
       </c>
-      <c r="K153" s="9">
+      <c r="K155" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
-      <c r="A154" s="11" t="s">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B156" s="9">
         <v>8308</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C156" s="9">
         <v>8504</v>
       </c>
-      <c r="D154" s="9">
+      <c r="D156" s="9">
         <v>21176</v>
       </c>
-      <c r="E154" s="9">
+      <c r="E156" s="9">
         <v>30998</v>
       </c>
-      <c r="F154" s="9">
+      <c r="F156" s="9">
         <v>17768</v>
       </c>
-      <c r="G154" s="9">
+      <c r="G156" s="9">
         <v>52463</v>
       </c>
-      <c r="H154" s="9">
+      <c r="H156" s="9">
         <v>18767</v>
       </c>
-      <c r="I154" s="9">
+      <c r="I156" s="9">
         <v>11059</v>
       </c>
-      <c r="J154" s="9">
+      <c r="J156" s="9">
         <v>2887</v>
       </c>
-      <c r="K154" s="9">
+      <c r="K156" s="9">
         <v>2494</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
-      <c r="A155" s="11" t="s">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A157" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B155" s="9">
-        <v>0</v>
-      </c>
-      <c r="C155" s="9">
-        <v>0</v>
-      </c>
-      <c r="D155" s="9">
-        <v>0</v>
-      </c>
-      <c r="E155" s="9">
-        <v>0</v>
-      </c>
-      <c r="F155" s="9">
-        <v>0</v>
-      </c>
-      <c r="G155" s="9">
+      <c r="B157" s="9">
+        <v>0</v>
+      </c>
+      <c r="C157" s="9">
+        <v>0</v>
+      </c>
+      <c r="D157" s="9">
+        <v>0</v>
+      </c>
+      <c r="E157" s="9">
+        <v>0</v>
+      </c>
+      <c r="F157" s="9">
+        <v>0</v>
+      </c>
+      <c r="G157" s="9">
         <v>33266</v>
       </c>
-      <c r="H155" s="9">
-        <v>0</v>
-      </c>
-      <c r="I155" s="9">
-        <v>0</v>
-      </c>
-      <c r="J155" s="9">
-        <v>0</v>
-      </c>
-      <c r="K155" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="11" t="s">
+      <c r="H157" s="9">
+        <v>0</v>
+      </c>
+      <c r="I157" s="9">
+        <v>0</v>
+      </c>
+      <c r="J157" s="9">
+        <v>0</v>
+      </c>
+      <c r="K157" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A158" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B158" s="9">
         <v>1496887</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C158" s="9">
         <v>1549960</v>
       </c>
-      <c r="D156" s="9">
+      <c r="D158" s="9">
         <v>1353552</v>
       </c>
-      <c r="E156" s="9">
+      <c r="E158" s="9">
         <v>1020871</v>
       </c>
-      <c r="F156" s="9">
+      <c r="F158" s="9">
         <v>795523</v>
       </c>
-      <c r="G156" s="9">
+      <c r="G158" s="9">
         <v>403906</v>
       </c>
-      <c r="H156" s="9">
+      <c r="H158" s="9">
         <v>457824</v>
       </c>
-      <c r="I156" s="9">
+      <c r="I158" s="9">
         <v>230951</v>
       </c>
-      <c r="J156" s="9">
+      <c r="J158" s="9">
         <v>164070</v>
       </c>
-      <c r="K156" s="9">
+      <c r="K158" s="9">
         <v>80154</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="11" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="9">
-        <v>0</v>
-      </c>
-      <c r="C157" s="9">
-        <v>0</v>
-      </c>
-      <c r="D157" s="9">
-        <v>0</v>
-      </c>
-      <c r="E157" s="9">
-        <v>0</v>
-      </c>
-      <c r="F157" s="9">
-        <v>0</v>
-      </c>
-      <c r="G157" s="9">
-        <v>0</v>
-      </c>
-      <c r="H157" s="9">
-        <v>0</v>
-      </c>
-      <c r="I157" s="9">
-        <v>0</v>
-      </c>
-      <c r="J157" s="9">
-        <v>0</v>
-      </c>
-      <c r="K157" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="11" t="s">
+      <c r="B159" s="9">
+        <v>0</v>
+      </c>
+      <c r="C159" s="9">
+        <v>0</v>
+      </c>
+      <c r="D159" s="9">
+        <v>0</v>
+      </c>
+      <c r="E159" s="9">
+        <v>0</v>
+      </c>
+      <c r="F159" s="9">
+        <v>0</v>
+      </c>
+      <c r="G159" s="9">
+        <v>0</v>
+      </c>
+      <c r="H159" s="9">
+        <v>0</v>
+      </c>
+      <c r="I159" s="9">
+        <v>0</v>
+      </c>
+      <c r="J159" s="9">
+        <v>0</v>
+      </c>
+      <c r="K159" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B160" s="9">
         <v>2122435</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C160" s="9">
         <v>890914</v>
       </c>
-      <c r="D158" s="9">
+      <c r="D160" s="9">
         <v>736407</v>
       </c>
-      <c r="E158" s="9">
+      <c r="E160" s="9">
         <v>1164285</v>
       </c>
-      <c r="F158" s="9">
+      <c r="F160" s="9">
         <v>295115</v>
       </c>
-      <c r="G158" s="9">
+      <c r="G160" s="9">
         <v>319234</v>
       </c>
-      <c r="H158" s="9">
+      <c r="H160" s="9">
         <v>218575</v>
       </c>
-      <c r="I158" s="9">
+      <c r="I160" s="9">
         <v>116011</v>
       </c>
-      <c r="J158" s="9">
+      <c r="J160" s="9">
         <v>104995</v>
       </c>
-      <c r="K158" s="9">
+      <c r="K160" s="9">
         <v>28405</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="11" t="s">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="9">
-        <v>0</v>
-      </c>
-      <c r="C159" s="9">
-        <v>0</v>
-      </c>
-      <c r="D159" s="9">
-        <v>0</v>
-      </c>
-      <c r="E159" s="9">
-        <v>0</v>
-      </c>
-      <c r="F159" s="9">
-        <v>0</v>
-      </c>
-      <c r="G159" s="9">
-        <v>0</v>
-      </c>
-      <c r="H159" s="9">
-        <v>0</v>
-      </c>
-      <c r="I159" s="9">
-        <v>0</v>
-      </c>
-      <c r="J159" s="9">
-        <v>0</v>
-      </c>
-      <c r="K159" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="11" t="s">
+      <c r="B161" s="9">
+        <v>0</v>
+      </c>
+      <c r="C161" s="9">
+        <v>0</v>
+      </c>
+      <c r="D161" s="9">
+        <v>0</v>
+      </c>
+      <c r="E161" s="9">
+        <v>0</v>
+      </c>
+      <c r="F161" s="9">
+        <v>0</v>
+      </c>
+      <c r="G161" s="9">
+        <v>0</v>
+      </c>
+      <c r="H161" s="9">
+        <v>0</v>
+      </c>
+      <c r="I161" s="9">
+        <v>0</v>
+      </c>
+      <c r="J161" s="9">
+        <v>0</v>
+      </c>
+      <c r="K161" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B160" s="9">
-        <v>0</v>
-      </c>
-      <c r="C160" s="9">
-        <v>0</v>
-      </c>
-      <c r="D160" s="9">
-        <v>0</v>
-      </c>
-      <c r="E160" s="9">
-        <v>0</v>
-      </c>
-      <c r="F160" s="9">
-        <v>0</v>
-      </c>
-      <c r="G160" s="9">
-        <v>0</v>
-      </c>
-      <c r="H160" s="9">
-        <v>0</v>
-      </c>
-      <c r="I160" s="9">
-        <v>0</v>
-      </c>
-      <c r="J160" s="9">
-        <v>0</v>
-      </c>
-      <c r="K160" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="11" t="s">
+      <c r="B162" s="9">
+        <v>0</v>
+      </c>
+      <c r="C162" s="9">
+        <v>0</v>
+      </c>
+      <c r="D162" s="9">
+        <v>0</v>
+      </c>
+      <c r="E162" s="9">
+        <v>0</v>
+      </c>
+      <c r="F162" s="9">
+        <v>0</v>
+      </c>
+      <c r="G162" s="9">
+        <v>0</v>
+      </c>
+      <c r="H162" s="9">
+        <v>0</v>
+      </c>
+      <c r="I162" s="9">
+        <v>0</v>
+      </c>
+      <c r="J162" s="9">
+        <v>0</v>
+      </c>
+      <c r="K162" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B161" s="9">
-        <v>0</v>
-      </c>
-      <c r="C161" s="9">
-        <v>0</v>
-      </c>
-      <c r="D161" s="9">
-        <v>0</v>
-      </c>
-      <c r="E161" s="9">
+      <c r="B163" s="9">
+        <v>0</v>
+      </c>
+      <c r="C163" s="9">
+        <v>0</v>
+      </c>
+      <c r="D163" s="9">
+        <v>0</v>
+      </c>
+      <c r="E163" s="9">
         <v>2481</v>
       </c>
-      <c r="F161" s="9">
+      <c r="F163" s="9">
         <v>67030</v>
       </c>
-      <c r="G161" s="9">
+      <c r="G163" s="9">
         <v>57122</v>
       </c>
-      <c r="H161" s="9">
+      <c r="H163" s="9">
         <v>1963</v>
       </c>
-      <c r="I161" s="9">
+      <c r="I163" s="9">
         <v>1676</v>
       </c>
-      <c r="J161" s="9">
+      <c r="J163" s="9">
         <v>1828</v>
       </c>
-      <c r="K161" s="9">
+      <c r="K163" s="9">
         <v>6412</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="11" t="s">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="9">
-        <v>0</v>
-      </c>
-      <c r="C162" s="9">
-        <v>0</v>
-      </c>
-      <c r="D162" s="9">
-        <v>0</v>
-      </c>
-      <c r="E162" s="9">
+      <c r="B164" s="9">
+        <v>0</v>
+      </c>
+      <c r="C164" s="9">
+        <v>0</v>
+      </c>
+      <c r="D164" s="9">
+        <v>0</v>
+      </c>
+      <c r="E164" s="9">
         <v>2481</v>
       </c>
-      <c r="F162" s="9">
+      <c r="F164" s="9">
         <v>67030</v>
       </c>
-      <c r="G162" s="9">
+      <c r="G164" s="9">
         <v>57122</v>
       </c>
-      <c r="H162" s="9">
+      <c r="H164" s="9">
         <v>1963</v>
       </c>
-      <c r="I162" s="9">
+      <c r="I164" s="9">
         <v>1676</v>
       </c>
-      <c r="J162" s="9">
+      <c r="J164" s="9">
         <v>1828</v>
       </c>
-      <c r="K162" s="9">
+      <c r="K164" s="9">
         <v>6412</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="11" t="s">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B163" s="9">
-        <v>0</v>
-      </c>
-      <c r="C163" s="9">
-        <v>0</v>
-      </c>
-      <c r="D163" s="9">
-        <v>0</v>
-      </c>
-      <c r="E163" s="9">
-        <v>0</v>
-      </c>
-      <c r="F163" s="9">
-        <v>0</v>
-      </c>
-      <c r="G163" s="9">
-        <v>0</v>
-      </c>
-      <c r="H163" s="9">
-        <v>0</v>
-      </c>
-      <c r="I163" s="9">
-        <v>0</v>
-      </c>
-      <c r="J163" s="9">
-        <v>0</v>
-      </c>
-      <c r="K163" s="9">
+      <c r="B165" s="9">
+        <v>0</v>
+      </c>
+      <c r="C165" s="9">
+        <v>0</v>
+      </c>
+      <c r="D165" s="9">
+        <v>0</v>
+      </c>
+      <c r="E165" s="9">
+        <v>0</v>
+      </c>
+      <c r="F165" s="9">
+        <v>0</v>
+      </c>
+      <c r="G165" s="9">
+        <v>0</v>
+      </c>
+      <c r="H165" s="9">
+        <v>0</v>
+      </c>
+      <c r="I165" s="9">
+        <v>0</v>
+      </c>
+      <c r="J165" s="9">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9">
         <v>510596</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="11" t="s">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B166" s="9">
         <v>2137</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C166" s="9">
         <v>2225</v>
       </c>
-      <c r="D164" s="9">
+      <c r="D166" s="9">
         <v>2574</v>
       </c>
-      <c r="E164" s="9">
+      <c r="E166" s="9">
         <v>2471</v>
       </c>
-      <c r="F164" s="9">
+      <c r="F166" s="9">
         <v>2398</v>
       </c>
-      <c r="G164" s="9">
+      <c r="G166" s="9">
         <v>3014</v>
       </c>
-      <c r="H164" s="9">
-        <v>0</v>
-      </c>
-      <c r="I164" s="9">
-        <v>0</v>
-      </c>
-      <c r="J164" s="9">
+      <c r="H166" s="9">
+        <v>0</v>
+      </c>
+      <c r="I166" s="9">
+        <v>0</v>
+      </c>
+      <c r="J166" s="9">
         <v>624610</v>
       </c>
-      <c r="K164" s="9">
+      <c r="K166" s="9">
         <v>2364</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
-      <c r="A165" s="11" t="s">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B167" s="9">
         <v>2137</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C167" s="9">
         <v>2225</v>
       </c>
-      <c r="D165" s="9">
+      <c r="D167" s="9">
         <v>2574</v>
       </c>
-      <c r="E165" s="9">
+      <c r="E167" s="9">
         <v>2471</v>
       </c>
-      <c r="F165" s="9">
+      <c r="F167" s="9">
         <v>2398</v>
       </c>
-      <c r="G165" s="9">
+      <c r="G167" s="9">
         <v>3014</v>
       </c>
-      <c r="H165" s="9">
-        <v>0</v>
-      </c>
-      <c r="I165" s="9">
-        <v>0</v>
-      </c>
-      <c r="J165" s="9">
+      <c r="H167" s="9">
+        <v>0</v>
+      </c>
+      <c r="I167" s="9">
+        <v>0</v>
+      </c>
+      <c r="J167" s="9">
         <v>624610</v>
       </c>
-      <c r="K165" s="9">
+      <c r="K167" s="9">
         <v>512960</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="11" t="s">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="9">
-        <v>0</v>
-      </c>
-      <c r="C166" s="9">
-        <v>0</v>
-      </c>
-      <c r="D166" s="9">
-        <v>0</v>
-      </c>
-      <c r="E166" s="9">
-        <v>0</v>
-      </c>
-      <c r="F166" s="9">
-        <v>0</v>
-      </c>
-      <c r="G166" s="9">
-        <v>0</v>
-      </c>
-      <c r="H166" s="9">
-        <v>0</v>
-      </c>
-      <c r="I166" s="9">
-        <v>0</v>
-      </c>
-      <c r="J166" s="9">
-        <v>0</v>
-      </c>
-      <c r="K166" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="11" t="s">
+      <c r="B168" s="9">
+        <v>0</v>
+      </c>
+      <c r="C168" s="9">
+        <v>0</v>
+      </c>
+      <c r="D168" s="9">
+        <v>0</v>
+      </c>
+      <c r="E168" s="9">
+        <v>0</v>
+      </c>
+      <c r="F168" s="9">
+        <v>0</v>
+      </c>
+      <c r="G168" s="9">
+        <v>0</v>
+      </c>
+      <c r="H168" s="9">
+        <v>0</v>
+      </c>
+      <c r="I168" s="9">
+        <v>0</v>
+      </c>
+      <c r="J168" s="9">
+        <v>0</v>
+      </c>
+      <c r="K168" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="9">
-        <v>0</v>
-      </c>
-      <c r="C167" s="9">
-        <v>0</v>
-      </c>
-      <c r="D167" s="9">
-        <v>0</v>
-      </c>
-      <c r="E167" s="9">
-        <v>0</v>
-      </c>
-      <c r="F167" s="9">
-        <v>0</v>
-      </c>
-      <c r="G167" s="9">
-        <v>0</v>
-      </c>
-      <c r="H167" s="9">
-        <v>0</v>
-      </c>
-      <c r="I167" s="9">
-        <v>0</v>
-      </c>
-      <c r="J167" s="9">
-        <v>0</v>
-      </c>
-      <c r="K167" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168" s="11" t="s">
+      <c r="B169" s="9">
+        <v>0</v>
+      </c>
+      <c r="C169" s="9">
+        <v>0</v>
+      </c>
+      <c r="D169" s="9">
+        <v>0</v>
+      </c>
+      <c r="E169" s="9">
+        <v>0</v>
+      </c>
+      <c r="F169" s="9">
+        <v>0</v>
+      </c>
+      <c r="G169" s="9">
+        <v>0</v>
+      </c>
+      <c r="H169" s="9">
+        <v>0</v>
+      </c>
+      <c r="I169" s="9">
+        <v>0</v>
+      </c>
+      <c r="J169" s="9">
+        <v>0</v>
+      </c>
+      <c r="K169" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="9">
-        <v>0</v>
-      </c>
-      <c r="C168" s="9">
-        <v>0</v>
-      </c>
-      <c r="D168" s="9">
-        <v>0</v>
-      </c>
-      <c r="E168" s="9">
-        <v>0</v>
-      </c>
-      <c r="F168" s="9">
-        <v>0</v>
-      </c>
-      <c r="G168" s="9">
-        <v>0</v>
-      </c>
-      <c r="H168" s="9">
-        <v>0</v>
-      </c>
-      <c r="I168" s="9">
-        <v>0</v>
-      </c>
-      <c r="J168" s="9">
-        <v>0</v>
-      </c>
-      <c r="K168" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169" s="11" t="s">
+      <c r="B170" s="9">
+        <v>0</v>
+      </c>
+      <c r="C170" s="9">
+        <v>0</v>
+      </c>
+      <c r="D170" s="9">
+        <v>0</v>
+      </c>
+      <c r="E170" s="9">
+        <v>0</v>
+      </c>
+      <c r="F170" s="9">
+        <v>0</v>
+      </c>
+      <c r="G170" s="9">
+        <v>0</v>
+      </c>
+      <c r="H170" s="9">
+        <v>0</v>
+      </c>
+      <c r="I170" s="9">
+        <v>0</v>
+      </c>
+      <c r="J170" s="9">
+        <v>0</v>
+      </c>
+      <c r="K170" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A171" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B169" s="9">
-        <v>0</v>
-      </c>
-      <c r="C169" s="9">
-        <v>0</v>
-      </c>
-      <c r="D169" s="9">
-        <v>0</v>
-      </c>
-      <c r="E169" s="9">
-        <v>0</v>
-      </c>
-      <c r="F169" s="9">
-        <v>0</v>
-      </c>
-      <c r="G169" s="9">
-        <v>0</v>
-      </c>
-      <c r="H169" s="9">
-        <v>0</v>
-      </c>
-      <c r="I169" s="9">
-        <v>0</v>
-      </c>
-      <c r="J169" s="9">
-        <v>0</v>
-      </c>
-      <c r="K169" s="9">
+      <c r="B171" s="9">
+        <v>0</v>
+      </c>
+      <c r="C171" s="9">
+        <v>0</v>
+      </c>
+      <c r="D171" s="9">
+        <v>0</v>
+      </c>
+      <c r="E171" s="9">
+        <v>0</v>
+      </c>
+      <c r="F171" s="9">
+        <v>0</v>
+      </c>
+      <c r="G171" s="9">
+        <v>0</v>
+      </c>
+      <c r="H171" s="9">
+        <v>0</v>
+      </c>
+      <c r="I171" s="9">
+        <v>0</v>
+      </c>
+      <c r="J171" s="9">
+        <v>0</v>
+      </c>
+      <c r="K171" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6741,17 +6390,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80890FE9-E786-4AB1-9642-CD7C8585C118}">
   <dimension ref="A5:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="10.08984375" customWidth="1"/>
+    <col min="12" max="12" width="57.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" ht="15.5">
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -6786,12 +6436,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.5">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>174</v>
       </c>
@@ -6836,7 +6486,7 @@
         <v>-0.25137484766669743</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="22" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>175</v>
       </c>
@@ -6880,56 +6530,56 @@
         <f>K25/((Bokslutsdata!K126+Bokslutsdata!L126)/2)</f>
         <v>-0.30075855849512395</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B9" s="15">
-        <f>B25/((B27+C27)/2)</f>
+        <f t="shared" ref="B9:J9" si="0">B25/((B27+C27)/2)</f>
         <v>-0.12561791055011515</v>
       </c>
       <c r="C9" s="15">
-        <f>C25/((C27+D27)/2)</f>
+        <f t="shared" si="0"/>
         <v>1.13257757252924E-3</v>
       </c>
       <c r="D9" s="15">
-        <f>D25/((D27+E27)/2)</f>
+        <f t="shared" si="0"/>
         <v>5.0712217337190175E-2</v>
       </c>
       <c r="E9" s="15">
-        <f>E25/((E27+F27)/2)</f>
+        <f t="shared" si="0"/>
         <v>-0.14818869787295236</v>
       </c>
       <c r="F9" s="15">
-        <f>F25/((F27+G27)/2)</f>
+        <f t="shared" si="0"/>
         <v>-9.8138260653594447E-3</v>
       </c>
       <c r="G9" s="15">
-        <f>G25/((G27+H27)/2)</f>
+        <f t="shared" si="0"/>
         <v>-0.21510768819986123</v>
       </c>
       <c r="H9" s="15">
-        <f>H25/((H27+I27)/2)</f>
+        <f t="shared" si="0"/>
         <v>-0.46027824879618512</v>
       </c>
       <c r="I9" s="15">
-        <f>I25/((I27+J27)/2)</f>
+        <f t="shared" si="0"/>
         <v>-0.73430402342818124</v>
       </c>
       <c r="J9" s="15">
-        <f>J25/((J27+K27)/2)</f>
+        <f t="shared" si="0"/>
         <v>-0.41327807046016329</v>
       </c>
       <c r="K9" s="15">
-        <f>K25/((K27+K27)/2)</f>
+        <f>K25/K27</f>
         <v>-0.32003393530851276</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>177</v>
       </c>
@@ -6970,11 +6620,11 @@
         <v>-0.44425557414296774</v>
       </c>
       <c r="K10" s="15">
-        <f>Bokslutsdata!K84/((Bokslutsdata!K135+Bokslutsdata!L135)/2)</f>
-        <v>-0.69262610183128481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <f>Bokslutsdata!K84/Bokslutsdata!K135</f>
+        <v>-0.34631305091564241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -6987,10 +6637,10 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -7002,7 +6652,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="15.5">
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>170</v>
       </c>
@@ -7017,37 +6667,103 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="B14" s="15">
+        <f>Bokslutsdata!B135/Bokslutsdata!B126</f>
+        <v>0.44385357481425447</v>
+      </c>
+      <c r="C14" s="15">
+        <f>Bokslutsdata!C135/Bokslutsdata!C126</f>
+        <v>0.51500978136755404</v>
+      </c>
+      <c r="D14" s="15">
+        <f>Bokslutsdata!D135/Bokslutsdata!D126</f>
+        <v>0.61635973807010691</v>
+      </c>
+      <c r="E14" s="15">
+        <f>Bokslutsdata!E135/Bokslutsdata!E126</f>
+        <v>0.47981541816292811</v>
+      </c>
+      <c r="F14" s="15">
+        <f>Bokslutsdata!F135/Bokslutsdata!F126</f>
+        <v>0.22408036900784606</v>
+      </c>
+      <c r="G14" s="15">
+        <f>Bokslutsdata!G135/Bokslutsdata!G126</f>
+        <v>0.41248107985076476</v>
+      </c>
+      <c r="H14" s="15">
+        <f>Bokslutsdata!H135/Bokslutsdata!H126</f>
+        <v>0.20591117910097076</v>
+      </c>
+      <c r="I14" s="15">
+        <f>Bokslutsdata!I135/Bokslutsdata!I126</f>
+        <v>0.52219938475818162</v>
+      </c>
+      <c r="J14" s="15">
+        <f>Bokslutsdata!J135/Bokslutsdata!J126</f>
+        <v>0.46889554650919724</v>
+      </c>
+      <c r="K14" s="15">
+        <f>Bokslutsdata!K135/Bokslutsdata!K126</f>
+        <v>0.46988541731549915</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.5">
+        <v>192</v>
+      </c>
+      <c r="B15" s="15">
+        <f>(Bokslutsdata!B118+Bokslutsdata!B121+Bokslutsdata!B122+Bokslutsdata!B123)/Bokslutsdata!B148</f>
+        <v>0.71393543032492468</v>
+      </c>
+      <c r="C15" s="15">
+        <f>(Bokslutsdata!C118+Bokslutsdata!C121+Bokslutsdata!C122+Bokslutsdata!C123)/Bokslutsdata!C148</f>
+        <v>1.0198026950737646</v>
+      </c>
+      <c r="D15" s="15">
+        <f>(Bokslutsdata!D118+Bokslutsdata!D121+Bokslutsdata!D122+Bokslutsdata!D123)/Bokslutsdata!D148</f>
+        <v>1.3688702799503374</v>
+      </c>
+      <c r="E15" s="15">
+        <f>(Bokslutsdata!E118+Bokslutsdata!E121+Bokslutsdata!E122+Bokslutsdata!E123)/Bokslutsdata!E148</f>
+        <v>1.3592693924739776</v>
+      </c>
+      <c r="F15" s="15">
+        <f>(Bokslutsdata!F118+Bokslutsdata!F121+Bokslutsdata!F122+Bokslutsdata!F123)/Bokslutsdata!F148</f>
+        <v>1.9902945688897162</v>
+      </c>
+      <c r="G15" s="15">
+        <f>(Bokslutsdata!G118+Bokslutsdata!G121+Bokslutsdata!G122+Bokslutsdata!G123)/Bokslutsdata!G148</f>
+        <v>1.3369627929821846</v>
+      </c>
+      <c r="H15" s="15">
+        <f>(Bokslutsdata!H118+Bokslutsdata!H121+Bokslutsdata!H122+Bokslutsdata!H123)/Bokslutsdata!H148</f>
+        <v>1.1386704426577539</v>
+      </c>
+      <c r="I15" s="15">
+        <f>(Bokslutsdata!I118+Bokslutsdata!I121+Bokslutsdata!I122+Bokslutsdata!I123)/Bokslutsdata!I148</f>
+        <v>1.8257887399976767</v>
+      </c>
+      <c r="J15" s="15">
+        <f>(Bokslutsdata!J118+Bokslutsdata!J121+Bokslutsdata!J122+Bokslutsdata!J123)/Bokslutsdata!J148</f>
+        <v>1.4974148277731583</v>
+      </c>
+      <c r="K15" s="15">
+        <f>(Bokslutsdata!K118+Bokslutsdata!K121+Bokslutsdata!K122+Bokslutsdata!K123)/Bokslutsdata!K148</f>
+        <v>0.76635483462275678</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>171</v>
       </c>
@@ -7062,24 +6778,54 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="B17" s="15">
+        <f>Bokslutsdata!B58/((Bokslutsdata!B126+Bokslutsdata!C126)/2)</f>
+        <v>1.1063691232764816</v>
+      </c>
+      <c r="C17" s="15">
+        <f>Bokslutsdata!C58/((Bokslutsdata!C126+Bokslutsdata!D126)/2)</f>
+        <v>1.0932134121858152</v>
+      </c>
+      <c r="D17" s="15">
+        <f>Bokslutsdata!D58/((Bokslutsdata!D126+Bokslutsdata!E126)/2)</f>
+        <v>0.93697290589923887</v>
+      </c>
+      <c r="E17" s="15">
+        <f>Bokslutsdata!E58/((Bokslutsdata!E126+Bokslutsdata!F126)/2)</f>
+        <v>0.89969668054050678</v>
+      </c>
+      <c r="F17" s="15">
+        <f>Bokslutsdata!F58/((Bokslutsdata!F126+Bokslutsdata!G126)/2)</f>
+        <v>0.99003336227524075</v>
+      </c>
+      <c r="G17" s="15">
+        <f>Bokslutsdata!G58/((Bokslutsdata!G126+Bokslutsdata!H126)/2)</f>
+        <v>1.0824237133789603</v>
+      </c>
+      <c r="H17" s="15">
+        <f>Bokslutsdata!H58/((Bokslutsdata!H126+Bokslutsdata!I126)/2)</f>
+        <v>1.6163371661824726</v>
+      </c>
+      <c r="I17" s="15">
+        <f>Bokslutsdata!I58/((Bokslutsdata!I126+Bokslutsdata!J126)/2)</f>
+        <v>2.1183137958927931</v>
+      </c>
+      <c r="J17" s="15">
+        <f>Bokslutsdata!J58/((Bokslutsdata!J126+Bokslutsdata!K126)/2)</f>
+        <v>1.3545081972015638</v>
+      </c>
+      <c r="K17" s="15">
+        <f>Bokslutsdata!K58/Bokslutsdata!K126</f>
+        <v>0.59822723173542258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -7092,9 +6838,9 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="13" t="s">
-        <v>182</v>
+    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -7107,37 +6853,101 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="15.5">
-      <c r="A20" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.5">
-      <c r="A21" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="15">
+        <f>Bokslutsdata!B58/Bokslutsdata!B154</f>
+        <v>0.14338680289855071</v>
+      </c>
+      <c r="C20" s="15">
+        <f>Bokslutsdata!C58/Bokslutsdata!C154</f>
+        <v>0.16379067527675276</v>
+      </c>
+      <c r="D20" s="15">
+        <f>Bokslutsdata!D58/Bokslutsdata!D154</f>
+        <v>0.16344387439613525</v>
+      </c>
+      <c r="E20" s="15">
+        <f>Bokslutsdata!E58/Bokslutsdata!E154</f>
+        <v>0.15882257499999999</v>
+      </c>
+      <c r="F20" s="15">
+        <f>Bokslutsdata!F58/Bokslutsdata!F154</f>
+        <v>0.14223967479674796</v>
+      </c>
+      <c r="G20" s="15">
+        <f>Bokslutsdata!G58/Bokslutsdata!G154</f>
+        <v>0.1256757032967033</v>
+      </c>
+      <c r="H20" s="15">
+        <f>Bokslutsdata!H58/Bokslutsdata!H154</f>
+        <v>0.14218418333333332</v>
+      </c>
+      <c r="I20" s="15" t="e">
+        <f>Bokslutsdata!I58/Bokslutsdata!I154</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J20" s="15">
+        <f>Bokslutsdata!J58/Bokslutsdata!J154</f>
+        <v>0.14448820000000001</v>
+      </c>
+      <c r="K20" s="15" t="e">
+        <f>Bokslutsdata!K58/Bokslutsdata!K154</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="22" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="15">
+        <f>Bokslutsdata!B153/Bokslutsdata!B154</f>
+        <v>0.44927536231884058</v>
+      </c>
+      <c r="C21" s="15">
+        <f>Bokslutsdata!C153/Bokslutsdata!C154</f>
+        <v>0.45756457564575648</v>
+      </c>
+      <c r="D21" s="15">
+        <f>Bokslutsdata!D153/Bokslutsdata!D154</f>
+        <v>0.46376811594202899</v>
+      </c>
+      <c r="E21" s="15">
+        <f>Bokslutsdata!E153/Bokslutsdata!E154</f>
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="F21" s="15">
+        <f>Bokslutsdata!F153/Bokslutsdata!F154</f>
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="G21" s="15">
+        <f>Bokslutsdata!G153/Bokslutsdata!G154</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="H21" s="15">
+        <f>Bokslutsdata!H153/Bokslutsdata!H154</f>
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="15" t="e">
+        <f>Bokslutsdata!I153/Bokslutsdata!I154</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J21" s="15">
+        <f>Bokslutsdata!J153/Bokslutsdata!J154</f>
+        <v>0.25</v>
+      </c>
+      <c r="K21" s="15" t="e">
+        <f>Bokslutsdata!K153/Bokslutsdata!K154</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -7149,7 +6959,7 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -7161,9 +6971,9 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:12" ht="15.5">
+    <row r="24" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -7176,9 +6986,9 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" s="14">
         <f>Bokslutsdata!B75+Bokslutsdata!B76+Bokslutsdata!B77+Bokslutsdata!B78+Bokslutsdata!B81</f>
@@ -7221,9 +7031,9 @@
         <v>-277640</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B26" s="14">
         <f>Bokslutsdata!B79+Bokslutsdata!B80+Bokslutsdata!B82+Bokslutsdata!B84</f>
@@ -7239,9 +7049,9 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B27" s="14">
         <f>Bokslutsdata!B126-B29</f>
@@ -7283,13 +7093,13 @@
         <f>Bokslutsdata!K126-K29</f>
         <v>867533</v>
       </c>
-      <c r="L27" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="L27" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B28" s="14">
         <f>Bokslutsdata!B135+Analys!B30</f>
@@ -7332,9 +7142,9 @@
         <v>867533</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B29" s="14">
         <f>Bokslutsdata!B138+Bokslutsdata!B145+Bokslutsdata!B146+Bokslutsdata!B147</f>
@@ -7377,9 +7187,9 @@
         <v>978732</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B30" s="14">
         <f>Bokslutsdata!B139+Bokslutsdata!B140+Bokslutsdata!B141+Bokslutsdata!B142+Bokslutsdata!B144</f>
@@ -7422,22 +7232,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B7:K7">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="B7:K7 B9:K29">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:K8">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:K29">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7464,199 +7272,199 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15.5">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>57</v>
       </c>
